--- a/documents/schedule.xlsx
+++ b/documents/schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minlwin/Desktop/clinic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minlwin/git/intern-web/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Schedule!$A$1:$I$35</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
   <si>
     <t>Controller Methods</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>Android</t>
+  </si>
+  <si>
+    <t>PublicDoctorController.java</t>
+  </si>
+  <si>
+    <t>PublicHomeController.java</t>
+  </si>
+  <si>
+    <t>MemberBookingController.java</t>
   </si>
 </sst>
 </file>
@@ -153,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -214,13 +223,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -967,7 +976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -983,31 +992,31 @@
         <v>43626</v>
       </c>
       <c r="C1" s="7">
-        <f>B1+7</f>
+        <f t="shared" ref="C1:I1" si="0">B1+7</f>
         <v>43633</v>
       </c>
       <c r="D1" s="7">
-        <f>C1+7</f>
+        <f t="shared" si="0"/>
         <v>43640</v>
       </c>
       <c r="E1" s="7">
-        <f>D1+7</f>
+        <f t="shared" si="0"/>
         <v>43647</v>
       </c>
       <c r="F1" s="7">
-        <f>E1+7</f>
+        <f t="shared" si="0"/>
         <v>43654</v>
       </c>
       <c r="G1" s="7">
-        <f>F1+7</f>
+        <f t="shared" si="0"/>
         <v>43661</v>
       </c>
       <c r="H1" s="7">
-        <f>G1+7</f>
+        <f t="shared" si="0"/>
         <v>43668</v>
       </c>
       <c r="I1" s="7">
-        <f>H1+7</f>
+        <f t="shared" si="0"/>
         <v>43675</v>
       </c>
       <c r="J1" s="2"/>
@@ -1184,11 +1193,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1271,7 +1280,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -1298,7 +1307,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1406,7 +1415,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>29</v>

--- a/documents/schedule.xlsx
+++ b/documents/schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
   <si>
     <t>Controller Methods</t>
   </si>
@@ -112,24 +112,6 @@
     <t>TimeTableController.java</t>
   </si>
   <si>
-    <t>Person 2</t>
-  </si>
-  <si>
-    <t>Person 3</t>
-  </si>
-  <si>
-    <t>Person 4</t>
-  </si>
-  <si>
-    <t>Person 5</t>
-  </si>
-  <si>
-    <t>Person 6</t>
-  </si>
-  <si>
-    <t>Person 7</t>
-  </si>
-  <si>
     <t>Zaw Min Lwin</t>
   </si>
   <si>
@@ -151,10 +133,28 @@
     <t>PublicDoctorController.java</t>
   </si>
   <si>
-    <t>PublicHomeController.java</t>
-  </si>
-  <si>
     <t>MemberBookingController.java</t>
+  </si>
+  <si>
+    <t>Chit Thae</t>
+  </si>
+  <si>
+    <t>Soe Yadanar Tun</t>
+  </si>
+  <si>
+    <t>Ei Phyu Phyu Thant</t>
+  </si>
+  <si>
+    <t>Htet Eaindray  Hlaing</t>
+  </si>
+  <si>
+    <t>Hmu Pyae Shan</t>
+  </si>
+  <si>
+    <t>Win Theingi</t>
+  </si>
+  <si>
+    <t>Complete</t>
   </si>
 </sst>
 </file>
@@ -977,7 +977,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="9" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1135,52 +1135,52 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1197,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1256,7 +1256,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F2" s="5">
         <v>43627</v>
@@ -1280,10 +1280,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F3" s="5">
         <v>43627</v>
@@ -1307,10 +1307,10 @@
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F4" s="5">
         <v>43627</v>
@@ -1319,7 +1319,9 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1337,7 +1339,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5">
         <v>43627</v>
@@ -1346,7 +1348,9 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1361,10 +1365,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F6" s="5">
         <v>43627</v>
@@ -1391,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F7" s="5">
         <v>43627</v>
@@ -1415,10 +1419,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F8" s="5">
         <v>43627</v>
@@ -1445,7 +1449,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F9" s="5">
         <v>43627</v>
@@ -1472,7 +1476,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F10" s="5">
         <v>43627</v>
@@ -1499,7 +1503,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F11" s="5">
         <v>43627</v>
@@ -1526,7 +1530,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F12" s="5">
         <v>43627</v>
@@ -1535,7 +1539,9 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1553,7 +1559,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F13" s="5">
         <v>43627</v>
@@ -1577,10 +1583,10 @@
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F14" s="5">
         <v>43627</v>
@@ -1607,7 +1613,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F15" s="5">
         <v>43627</v>
@@ -1616,7 +1622,9 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1634,7 +1642,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F16" s="5">
         <v>43627</v>
@@ -1643,7 +1651,9 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1658,10 +1668,10 @@
         <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F17" s="5">
         <v>43627</v>
@@ -1688,7 +1698,7 @@
         <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F18" s="5">
         <v>43627</v>
@@ -1715,7 +1725,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F19" s="5">
         <v>43627</v>
@@ -1742,7 +1752,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F20" s="5">
         <v>43627</v>
@@ -1769,7 +1779,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F21" s="5">
         <v>43627</v>
@@ -1796,7 +1806,7 @@
         <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F22" s="5">
         <v>43627</v>
@@ -1823,7 +1833,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F23" s="5">
         <v>43627</v>
@@ -1832,7 +1842,9 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">

--- a/documents/schedule.xlsx
+++ b/documents/schedule.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minlwin/git/intern-web/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htetaunglin/git/intern-web/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -21,9 +21,6 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
   <si>
     <t>Controller Methods</t>
   </si>
@@ -1191,13 +1188,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1268,7 +1266,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A35" si="0">ROW()-1</f>
         <v>2</v>
@@ -1295,7 +1293,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1324,7 +1322,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1353,7 +1351,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1380,7 +1378,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1407,7 +1405,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1434,7 +1432,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1461,7 +1459,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1512,10 +1510,12 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1571,7 +1571,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1598,7 +1598,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1683,7 +1683,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1710,7 +1710,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1737,7 +1737,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1764,7 +1764,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1815,10 +1815,12 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1847,7 +1849,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1861,7 +1863,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1875,7 +1877,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1889,7 +1891,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1903,7 +1905,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1917,7 +1919,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1931,7 +1933,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1945,7 +1947,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1959,7 +1961,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1973,7 +1975,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1987,7 +1989,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2001,7 +2003,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2192,7 +2194,13 @@
       <c r="I51" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I35"/>
+  <autoFilter ref="A1:I35">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Htet  Aung  Lin"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H51">
       <formula1>"Not Yet, On Schedule, Delay, Complete"</formula1>

--- a/documents/schedule.xlsx
+++ b/documents/schedule.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htetaunglin/git/intern-web/documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3084E95D-49B7-4FD8-8983-4C5AE0822C65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23064" windowHeight="13224" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -19,8 +15,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Schedule!$A$1:$I$35</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <oleSize ref="A1:I21"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="55">
   <si>
     <t>Controller Methods</t>
   </si>
@@ -152,12 +155,54 @@
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t>clinics.html</t>
+  </si>
+  <si>
+    <t>doctor.html</t>
+  </si>
+  <si>
+    <t>doctors.html</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>login.html</t>
+  </si>
+  <si>
+    <t>schedules.html</t>
+  </si>
+  <si>
+    <t>signup.html</t>
+  </si>
+  <si>
+    <t>booking.html</t>
+  </si>
+  <si>
+    <t>bookings.html</t>
+  </si>
+  <si>
+    <t>create-family.html</t>
+  </si>
+  <si>
+    <t>family.html</t>
+  </si>
+  <si>
+    <t>familyMemberCreate.html</t>
+  </si>
+  <si>
+    <t>familyMemberUpdate.html</t>
+  </si>
+  <si>
+    <t>home.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
@@ -243,6 +288,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -264,7 +312,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Right Arrow 1"/>
+        <xdr:cNvPr id="2" name="Right Arrow 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -321,7 +375,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Right Arrow 2"/>
+        <xdr:cNvPr id="3" name="Right Arrow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -378,7 +438,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Right Arrow 3"/>
+        <xdr:cNvPr id="4" name="Right Arrow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -435,7 +501,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Right Arrow 4"/>
+        <xdr:cNvPr id="5" name="Right Arrow 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -492,7 +564,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Right Arrow 5"/>
+        <xdr:cNvPr id="6" name="Right Arrow 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -549,7 +627,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Right Arrow 6"/>
+        <xdr:cNvPr id="7" name="Right Arrow 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -606,7 +690,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Right Arrow 7"/>
+        <xdr:cNvPr id="8" name="Right Arrow 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -663,7 +753,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Right Arrow 8"/>
+        <xdr:cNvPr id="9" name="Right Arrow 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -970,20 +1066,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="7">
         <v>43626</v>
@@ -1018,7 +1114,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1128,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1046,7 +1142,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1156,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -1074,7 +1170,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1088,7 +1184,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1102,7 +1198,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1212,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -1130,52 +1226,52 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1187,30 +1283,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.296875" customWidth="1"/>
+    <col min="2" max="2" width="24.796875" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" customWidth="1"/>
+    <col min="4" max="4" width="33.19921875" customWidth="1"/>
+    <col min="5" max="5" width="23.796875" customWidth="1"/>
     <col min="6" max="7" width="13.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" customWidth="1"/>
     <col min="9" max="9" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1239,7 +1334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1266,9 +1361,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A35" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A47" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1293,7 +1388,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1322,7 +1417,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1351,7 +1446,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1378,7 +1473,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1405,7 +1500,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1432,7 +1527,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1459,7 +1554,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1486,7 +1581,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1515,7 +1610,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1544,7 +1639,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1571,7 +1666,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1598,7 +1693,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1627,7 +1722,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1656,7 +1751,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1683,7 +1778,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1710,7 +1805,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1737,7 +1832,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1764,7 +1859,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1791,7 +1886,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1820,7 +1915,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1849,200 +1944,295 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="5"/>
@@ -2050,8 +2240,11 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2061,8 +2254,11 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2072,8 +2268,11 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2083,8 +2282,11 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2094,8 +2296,11 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2105,8 +2310,11 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2116,8 +2324,11 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2127,8 +2338,11 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2138,8 +2352,11 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2149,7 +2366,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2160,7 +2377,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2171,7 +2388,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2182,7 +2399,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2194,15 +2411,9 @@
       <c r="I51" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I35">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Htet  Aung  Lin"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I35" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H51" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Not Yet, On Schedule, Delay, Complete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2210,7 +2421,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Sheet3!$A$12:$A$21</xm:f>
           </x14:formula1>
@@ -2223,12 +2434,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/schedule.xlsx
+++ b/documents/schedule.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3084E95D-49B7-4FD8-8983-4C5AE0822C65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GAMING\git\intern-web\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFBC94D-FEA0-42A9-8E94-19140B38A535}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="23064" windowHeight="13224" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -13,10 +18,9 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Schedule!$A$1:$I$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Schedule!$A$1:$I$47</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
-  <oleSize ref="A1:I21"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="58">
   <si>
     <t>Controller Methods</t>
   </si>
@@ -184,19 +188,28 @@
     <t>bookings.html</t>
   </si>
   <si>
-    <t>create-family.html</t>
-  </si>
-  <si>
     <t>family.html</t>
   </si>
   <si>
-    <t>familyMemberCreate.html</t>
-  </si>
-  <si>
-    <t>familyMemberUpdate.html</t>
-  </si>
-  <si>
     <t>home.html</t>
+  </si>
+  <si>
+    <t>family-edit.html</t>
+  </si>
+  <si>
+    <t>clinic-edit.html</t>
+  </si>
+  <si>
+    <t>clinic.html</t>
+  </si>
+  <si>
+    <t>doctor-edit.html</t>
+  </si>
+  <si>
+    <t>patient.html</t>
+  </si>
+  <si>
+    <t>patients.html</t>
   </si>
 </sst>
 </file>
@@ -1287,10 +1300,10 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1958,9 +1971,16 @@
       <c r="D24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="5">
+        <v>43628</v>
+      </c>
+      <c r="G24" s="5">
+        <f>F24+2</f>
+        <v>43630</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
@@ -1978,9 +1998,16 @@
       <c r="D25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="E25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="5">
+        <v>43628</v>
+      </c>
+      <c r="G25" s="5">
+        <f>F25+2</f>
+        <v>43630</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
@@ -1998,9 +2025,16 @@
       <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="E26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="5">
+        <v>43630</v>
+      </c>
+      <c r="G26" s="5">
+        <f>F26+2</f>
+        <v>43632</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
@@ -2018,9 +2052,16 @@
       <c r="D27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="E27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="5">
+        <v>43627</v>
+      </c>
+      <c r="G27" s="5">
+        <f>F27+1</f>
+        <v>43628</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
@@ -2038,9 +2079,16 @@
       <c r="D28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="5">
+        <v>43627</v>
+      </c>
+      <c r="G28" s="5">
+        <f>F28+1</f>
+        <v>43628</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
@@ -2058,9 +2106,16 @@
       <c r="D29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="E29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="5">
+        <v>43628</v>
+      </c>
+      <c r="G29" s="5">
+        <f>F29+2</f>
+        <v>43630</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
@@ -2078,9 +2133,16 @@
       <c r="D30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="E30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="5">
+        <v>43627</v>
+      </c>
+      <c r="G30" s="5">
+        <f>F30+1</f>
+        <v>43628</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
@@ -2098,9 +2160,16 @@
       <c r="D31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="E31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="5">
+        <v>43628</v>
+      </c>
+      <c r="G31" s="5">
+        <f>F31+2</f>
+        <v>43630</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
@@ -2118,9 +2187,16 @@
       <c r="D32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="E32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="5">
+        <v>43630</v>
+      </c>
+      <c r="G32" s="5">
+        <f>F32+2</f>
+        <v>43632</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
@@ -2136,11 +2212,18 @@
         <v>20</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="5">
+        <v>43628</v>
+      </c>
+      <c r="G33" s="5">
+        <f>F33+2</f>
+        <v>43630</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
@@ -2156,11 +2239,18 @@
         <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="5">
+        <v>43630</v>
+      </c>
+      <c r="G34" s="5">
+        <f>F34+2</f>
+        <v>43632</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
@@ -2176,11 +2266,18 @@
         <v>20</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="5">
+        <v>43629</v>
+      </c>
+      <c r="G35" s="5">
+        <f>F35+2</f>
+        <v>43631</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
@@ -2193,14 +2290,21 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="5">
+        <v>43628</v>
+      </c>
+      <c r="G36" s="5">
+        <f>F36+2</f>
+        <v>43630</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
@@ -2213,14 +2317,21 @@
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="5">
+        <v>43631</v>
+      </c>
+      <c r="G37" s="5">
+        <f>F37+2</f>
+        <v>43633</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
@@ -2229,14 +2340,25 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="D38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="5">
+        <v>43633</v>
+      </c>
+      <c r="G38" s="5">
+        <f>F38+2</f>
+        <v>43635</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
@@ -2245,12 +2367,25 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="5">
+        <v>43630</v>
+      </c>
+      <c r="G39" s="5">
+        <f>F39+2</f>
+        <v>43632</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
@@ -2259,12 +2394,25 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="5">
+        <v>43632</v>
+      </c>
+      <c r="G40" s="5">
+        <f>F40+2</f>
+        <v>43634</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
@@ -2273,12 +2421,25 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="B41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="5">
+        <v>43630</v>
+      </c>
+      <c r="G41" s="5">
+        <f>F41+2</f>
+        <v>43632</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
@@ -2287,12 +2448,25 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="B42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="5">
+        <v>43630</v>
+      </c>
+      <c r="G42" s="5">
+        <f>F42+2</f>
+        <v>43632</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
@@ -2301,12 +2475,25 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="5">
+        <v>43632</v>
+      </c>
+      <c r="G43" s="5">
+        <f>F43+2</f>
+        <v>43634</v>
+      </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
@@ -2315,12 +2502,25 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="B44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="5">
+        <v>43632</v>
+      </c>
+      <c r="G44" s="5">
+        <f>F44+2</f>
+        <v>43634</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
@@ -2411,7 +2611,7 @@
       <c r="I51" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I35" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:I47" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H51" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Not Yet, On Schedule, Delay, Complete"</formula1>

--- a/documents/schedule.xlsx
+++ b/documents/schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GAMING\git\intern-web\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minlwin/git/intern-web/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFBC94D-FEA0-42A9-8E94-19140B38A535}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -20,23 +19,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Schedule!$A$1:$I$47</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="58">
   <si>
     <t>Controller Methods</t>
   </si>
@@ -215,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
@@ -328,7 +330,7 @@
         <xdr:cNvPr id="2" name="Right Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -391,7 +393,7 @@
         <xdr:cNvPr id="3" name="Right Arrow 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -454,7 +456,7 @@
         <xdr:cNvPr id="4" name="Right Arrow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -517,7 +519,7 @@
         <xdr:cNvPr id="5" name="Right Arrow 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -580,7 +582,7 @@
         <xdr:cNvPr id="6" name="Right Arrow 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -643,7 +645,7 @@
         <xdr:cNvPr id="7" name="Right Arrow 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -706,7 +708,7 @@
         <xdr:cNvPr id="8" name="Right Arrow 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,7 +771,7 @@
         <xdr:cNvPr id="9" name="Right Arrow 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1079,20 +1081,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="7">
         <v>43626</v>
@@ -1127,7 +1129,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1143,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1155,7 +1157,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1169,7 +1171,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -1183,7 +1185,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +1199,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1213,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1227,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -1239,52 +1241,52 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1296,29 +1298,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.296875" customWidth="1"/>
-    <col min="2" max="2" width="24.796875" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" customWidth="1"/>
-    <col min="4" max="4" width="33.19921875" customWidth="1"/>
-    <col min="5" max="5" width="23.796875" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
     <col min="6" max="7" width="13.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.19921875" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
     <col min="9" max="9" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1347,7 +1349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1371,10 +1373,12 @@
         <f>F2</f>
         <v>43627</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A47" si="0">ROW()-1</f>
         <v>2</v>
@@ -1401,7 +1405,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1430,7 +1434,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1459,7 +1463,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1486,7 +1490,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1513,7 +1517,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1540,7 +1544,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1567,7 +1571,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1594,7 +1598,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1623,7 +1627,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1652,7 +1656,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1676,10 +1680,12 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1706,7 +1712,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1735,7 +1741,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1764,7 +1770,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1791,7 +1797,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1818,7 +1824,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1845,7 +1851,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1872,7 +1878,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1899,7 +1905,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1928,7 +1934,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1957,7 +1963,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1984,7 +1990,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2011,7 +2017,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2038,7 +2044,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2065,7 +2071,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2092,7 +2098,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2119,7 +2125,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2146,7 +2152,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2167,13 +2173,13 @@
         <v>43628</v>
       </c>
       <c r="G31" s="5">
-        <f>F31+2</f>
+        <f t="shared" ref="G31:G44" si="2">F31+2</f>
         <v>43630</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2194,13 +2200,13 @@
         <v>43630</v>
       </c>
       <c r="G32" s="5">
-        <f>F32+2</f>
+        <f t="shared" si="2"/>
         <v>43632</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2221,13 +2227,13 @@
         <v>43628</v>
       </c>
       <c r="G33" s="5">
-        <f>F33+2</f>
+        <f t="shared" si="2"/>
         <v>43630</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2248,13 +2254,13 @@
         <v>43630</v>
       </c>
       <c r="G34" s="5">
-        <f>F34+2</f>
+        <f t="shared" si="2"/>
         <v>43632</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2275,13 +2281,13 @@
         <v>43629</v>
       </c>
       <c r="G35" s="5">
-        <f>F35+2</f>
+        <f t="shared" si="2"/>
         <v>43631</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2302,13 +2308,13 @@
         <v>43628</v>
       </c>
       <c r="G36" s="5">
-        <f>F36+2</f>
+        <f t="shared" si="2"/>
         <v>43630</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2329,13 +2335,13 @@
         <v>43631</v>
       </c>
       <c r="G37" s="5">
-        <f>F37+2</f>
+        <f t="shared" si="2"/>
         <v>43633</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2356,13 +2362,13 @@
         <v>43633</v>
       </c>
       <c r="G38" s="5">
-        <f>F38+2</f>
+        <f t="shared" si="2"/>
         <v>43635</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2383,13 +2389,13 @@
         <v>43630</v>
       </c>
       <c r="G39" s="5">
-        <f>F39+2</f>
+        <f t="shared" si="2"/>
         <v>43632</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2410,13 +2416,13 @@
         <v>43632</v>
       </c>
       <c r="G40" s="5">
-        <f>F40+2</f>
+        <f t="shared" si="2"/>
         <v>43634</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2437,13 +2443,13 @@
         <v>43630</v>
       </c>
       <c r="G41" s="5">
-        <f>F41+2</f>
+        <f t="shared" si="2"/>
         <v>43632</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2464,13 +2470,13 @@
         <v>43630</v>
       </c>
       <c r="G42" s="5">
-        <f>F42+2</f>
+        <f t="shared" si="2"/>
         <v>43632</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2491,13 +2497,13 @@
         <v>43632</v>
       </c>
       <c r="G43" s="5">
-        <f>F43+2</f>
+        <f t="shared" si="2"/>
         <v>43634</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2518,27 +2524,35 @@
         <v>43632</v>
       </c>
       <c r="G44" s="5">
-        <f>F44+2</f>
+        <f t="shared" si="2"/>
         <v>43634</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2552,7 +2566,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2566,7 +2580,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2577,7 +2591,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2588,7 +2602,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2599,7 +2613,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2611,9 +2625,9 @@
       <c r="I51" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I47" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:I47"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H51" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H51">
       <formula1>"Not Yet, On Schedule, Delay, Complete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2621,7 +2635,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet3!$A$12:$A$21</xm:f>
           </x14:formula1>
@@ -2634,12 +2648,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/schedule.xlsx
+++ b/documents/schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minlwin/git/intern-web/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GAMING\git\intern-web\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5463E1BE-1542-4D7F-8557-1725FF1F4BB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -19,26 +20,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Schedule!$A$1:$I$47</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="58">
   <si>
     <t>Controller Methods</t>
   </si>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
@@ -330,7 +330,7 @@
         <xdr:cNvPr id="2" name="Right Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -393,7 +393,7 @@
         <xdr:cNvPr id="3" name="Right Arrow 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -456,7 +456,7 @@
         <xdr:cNvPr id="4" name="Right Arrow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -519,7 +519,7 @@
         <xdr:cNvPr id="5" name="Right Arrow 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -582,7 +582,7 @@
         <xdr:cNvPr id="6" name="Right Arrow 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -645,7 +645,7 @@
         <xdr:cNvPr id="7" name="Right Arrow 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -708,7 +708,7 @@
         <xdr:cNvPr id="8" name="Right Arrow 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -771,7 +771,7 @@
         <xdr:cNvPr id="9" name="Right Arrow 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1081,20 +1081,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="7">
         <v>43626</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -1185,7 +1185,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1213,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -1241,52 +1241,52 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1298,29 +1298,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="I51" sqref="I51:I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.296875" customWidth="1"/>
+    <col min="2" max="2" width="34.296875" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" customWidth="1"/>
+    <col min="4" max="4" width="33.19921875" customWidth="1"/>
+    <col min="5" max="5" width="23.796875" customWidth="1"/>
     <col min="6" max="7" width="13.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" customWidth="1"/>
     <col min="9" max="9" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1378,9 +1378,9 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A47" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A56" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1402,10 +1402,12 @@
         <f t="shared" ref="G3:G23" si="1">F3</f>
         <v>43627</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1434,7 +1436,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1463,7 +1465,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1487,10 +1489,12 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1514,10 +1518,12 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1541,10 +1547,12 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1568,10 +1576,12 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1595,10 +1605,12 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1627,7 +1639,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1656,7 +1668,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1685,7 +1697,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1709,10 +1721,12 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1741,7 +1755,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1770,7 +1784,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1794,10 +1808,12 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1821,10 +1837,12 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1848,10 +1866,12 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1875,10 +1895,12 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1902,10 +1924,12 @@
         <f t="shared" si="1"/>
         <v>43627</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1934,7 +1958,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1963,7 +1987,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1987,10 +2011,12 @@
         <f>F24+2</f>
         <v>43630</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2014,10 +2040,12 @@
         <f>F25+2</f>
         <v>43630</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2041,10 +2069,12 @@
         <f>F26+2</f>
         <v>43632</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2068,10 +2098,12 @@
         <f>F27+1</f>
         <v>43628</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2095,10 +2127,12 @@
         <f>F28+1</f>
         <v>43628</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2122,10 +2156,12 @@
         <f>F29+2</f>
         <v>43630</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2149,10 +2185,12 @@
         <f>F30+1</f>
         <v>43628</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2176,10 +2214,12 @@
         <f t="shared" ref="G31:G44" si="2">F31+2</f>
         <v>43630</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2203,10 +2243,12 @@
         <f t="shared" si="2"/>
         <v>43632</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2230,10 +2272,12 @@
         <f t="shared" si="2"/>
         <v>43630</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2257,10 +2301,12 @@
         <f t="shared" si="2"/>
         <v>43632</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2284,10 +2330,12 @@
         <f t="shared" si="2"/>
         <v>43631</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2311,10 +2359,12 @@
         <f t="shared" si="2"/>
         <v>43630</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2338,10 +2388,12 @@
         <f t="shared" si="2"/>
         <v>43633</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2365,10 +2417,12 @@
         <f t="shared" si="2"/>
         <v>43635</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2392,10 +2446,12 @@
         <f t="shared" si="2"/>
         <v>43632</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2419,10 +2475,12 @@
         <f t="shared" si="2"/>
         <v>43634</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2446,10 +2504,12 @@
         <f t="shared" si="2"/>
         <v>43632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2473,10 +2533,12 @@
         <f t="shared" si="2"/>
         <v>43632</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2500,10 +2562,12 @@
         <f t="shared" si="2"/>
         <v>43634</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2527,10 +2591,12 @@
         <f t="shared" si="2"/>
         <v>43634</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2549,16 +2615,22 @@
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="5"/>
@@ -2566,13 +2638,17 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="B47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="5"/>
@@ -2580,10 +2656,17 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="5"/>
@@ -2591,10 +2674,17 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="5"/>
@@ -2602,10 +2692,17 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="5"/>
@@ -2613,10 +2710,17 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="5"/>
@@ -2624,10 +2728,100 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I47"/>
+  <autoFilter ref="A1:I47" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H56" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Not Yet, On Schedule, Delay, Complete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2635,11 +2829,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Sheet3!$A$12:$A$21</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E51</xm:sqref>
+          <xm:sqref>E2:E56</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2648,12 +2842,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
